--- a/day09 文件操作相关/代码和作业答案/my.xlsx
+++ b/day09 文件操作相关/代码和作业答案/my.xlsx
@@ -1,126 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wupeiqi/PycharmProjects/luffyCourse/day09/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2546C9F-A2BD-DB47-B845-6A5F8FBF8E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-33820" yWindow="1640" windowWidth="30720" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mysqld" sheetId="1" r:id="rId1"/>
-    <sheet name="mysqld_safe" sheetId="2" r:id="rId2"/>
-    <sheet name="client" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mysqld" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mysqld_safe" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="client" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>datadir</t>
-  </si>
-  <si>
-    <t>/var/lib/mysql</t>
-  </si>
-  <si>
-    <t>socket</t>
-  </si>
-  <si>
-    <t>/var/lib/mysql/mysql.sock</t>
-  </si>
-  <si>
-    <t>log-bin</t>
-  </si>
-  <si>
-    <t>py-mysql-bin</t>
-  </si>
-  <si>
-    <t>character-set-server</t>
-  </si>
-  <si>
-    <t>utf8</t>
-  </si>
-  <si>
-    <t>collation-server</t>
-  </si>
-  <si>
-    <t>utf8_general_ci</t>
-  </si>
-  <si>
-    <t>log-error</t>
-  </si>
-  <si>
-    <t>/var/log/mysqld.log</t>
-  </si>
-  <si>
-    <t>symbolic-links</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>/var/log/mariadb/mariadb.log</t>
-  </si>
-  <si>
-    <t>pid-file</t>
-  </si>
-  <si>
-    <t>/var/run/mariadb/mariadb.pid</t>
-  </si>
-  <si>
-    <t>default-character-set</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
+        <fgColor rgb="006495ED"/>
       </patternFill>
     </fill>
   </fills>
@@ -134,45 +55,103 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -460,153 +439,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>键</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>datadir</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>/var/lib/mysql</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>socket</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>/var/lib/mysql/mysql.sock</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>log-bin</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>py-mysql-bin</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>character-set-server</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>utf8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>collation-server</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>utf8_general_ci</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>log-error</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>/var/log/mysqld.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>symbolic-links</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="187" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>键</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>log-error</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>/var/log/mariadb/mariadb.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>pid-file</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>/var/run/mariadb/mariadb.pid</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>键</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>default-character-set</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>utf8</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>